--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1186"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43414,6 +43414,43 @@
         </is>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43451,6 +43451,41 @@
         </is>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>4400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43486,6 +43486,43 @@
         <v>4400</v>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43523,6 +43523,43 @@
         </is>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43560,6 +43560,43 @@
         </is>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43597,6 +43597,43 @@
         </is>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43634,6 +43634,43 @@
         </is>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43671,6 +43671,43 @@
         </is>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43708,6 +43708,43 @@
         </is>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43745,6 +43745,43 @@
         </is>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43782,6 +43782,43 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43819,6 +43819,78 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43891,6 +43891,43 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43928,6 +43928,43 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43965,6 +43965,43 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44002,6 +44002,41 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44037,6 +44037,80 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44111,6 +44111,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1816"/>
+  <dimension ref="A1:I1817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65498,6 +65498,43 @@
         </is>
       </c>
     </row>
+    <row r="1817">
+      <c r="A1817" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1817" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1817" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1817" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1817" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1817"/>
+  <dimension ref="A1:I1818"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65535,6 +65535,43 @@
         </is>
       </c>
     </row>
+    <row r="1818">
+      <c r="A1818" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1818" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1818" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1818"/>
+  <dimension ref="A1:I1819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65572,6 +65572,43 @@
         </is>
       </c>
     </row>
+    <row r="1819">
+      <c r="A1819" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1819" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1819" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1819" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1819"/>
+  <dimension ref="A1:I1820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65609,6 +65609,43 @@
         </is>
       </c>
     </row>
+    <row r="1820">
+      <c r="A1820" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1820" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1820" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1820" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1820"/>
+  <dimension ref="A1:I1821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65646,6 +65646,43 @@
         </is>
       </c>
     </row>
+    <row r="1821">
+      <c r="A1821" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1821" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1821" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1821"/>
+  <dimension ref="A1:I1822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65683,6 +65683,43 @@
         </is>
       </c>
     </row>
+    <row r="1822">
+      <c r="A1822" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1822" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1822" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1822"/>
+  <dimension ref="A1:I1823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65720,6 +65720,43 @@
         </is>
       </c>
     </row>
+    <row r="1823">
+      <c r="A1823" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1823" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1823" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1823"/>
+  <dimension ref="A1:I1824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65757,6 +65757,43 @@
         </is>
       </c>
     </row>
+    <row r="1824">
+      <c r="A1824" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1824" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1824" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1824"/>
+  <dimension ref="A1:I1825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65794,6 +65794,43 @@
         </is>
       </c>
     </row>
+    <row r="1825">
+      <c r="A1825" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1825" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1825" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1825"/>
+  <dimension ref="A1:I1826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65831,6 +65831,43 @@
         </is>
       </c>
     </row>
+    <row r="1826">
+      <c r="A1826" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1826" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1826" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1826"/>
+  <dimension ref="A1:I1827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65868,6 +65868,43 @@
         </is>
       </c>
     </row>
+    <row r="1827">
+      <c r="A1827" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1827" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1827" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1827" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1827"/>
+  <dimension ref="A1:I1828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65905,6 +65905,43 @@
         </is>
       </c>
     </row>
+    <row r="1828">
+      <c r="A1828" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1828" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1828" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1828" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1828" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1828"/>
+  <dimension ref="A1:I1829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65942,6 +65942,43 @@
         </is>
       </c>
     </row>
+    <row r="1829">
+      <c r="A1829" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1829" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1829" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1829"/>
+  <dimension ref="A1:I1830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65979,6 +65979,41 @@
         </is>
       </c>
     </row>
+    <row r="1830">
+      <c r="A1830" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1830" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>19500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7025.xlsx
+++ b/data/7025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1830"/>
+  <dimension ref="A1:I1831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66014,6 +66014,43 @@
         <v>19500</v>
       </c>
     </row>
+    <row r="1831">
+      <c r="A1831" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>WOODLAN</t>
+        </is>
+      </c>
+      <c r="E1831" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1831" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
